--- a/CW1-BusinessImpactsOfCovid19Data.xlsx
+++ b/CW1-BusinessImpactsOfCovid19Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehaoxue/Projects/Open-Data-Innovation-CW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF9F34F-2118-694C-8EEF-9EC76842BDAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1A3C0-ADEB-2945-B084-EB6C9F0CA024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19380" tabRatio="741" firstSheet="1" activeTab="2" xr2:uid="{9EB04E1C-C546-4017-9D53-D0BD6D4BAE6A}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19380" tabRatio="741" activeTab="4" xr2:uid="{9EB04E1C-C546-4017-9D53-D0BD6D4BAE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1626,7 +1626,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2239,8 +2239,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2815,12 +2815,19 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -5195,12 +5202,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1159</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5343,31 +5350,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1159</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B6944B9-16A3-4101-8D9B-111686CC9635}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14012F8B-A900-45F8-95A5-36ED3818ED51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="387449d1-79f8-418b-b827-fabc30f894b6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5392,9 +5386,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14012F8B-A900-45F8-95A5-36ED3818ED51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B6944B9-16A3-4101-8D9B-111686CC9635}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="387449d1-79f8-418b-b827-fabc30f894b6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CW1-BusinessImpactsOfCovid19Data.xlsx
+++ b/CW1-BusinessImpactsOfCovid19Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehaoxue/Projects/Open-Data-Innovation-CW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1A3C0-ADEB-2945-B084-EB6C9F0CA024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6B2B0-ADD0-4F42-A80A-A0FC551DDCE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19380" tabRatio="741" activeTab="4" xr2:uid="{9EB04E1C-C546-4017-9D53-D0BD6D4BAE6A}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19380" tabRatio="741" firstSheet="3" activeTab="7" xr2:uid="{9EB04E1C-C546-4017-9D53-D0BD6D4BAE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="97">
   <si>
     <t>Business impacts of COVID-19 data</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Rows will not sum to 100% as the response proportions are calculated from each workforce size band</t>
-  </si>
-  <si>
-    <t>42.2+%</t>
   </si>
 </sst>
 </file>
@@ -1299,12 +1296,12 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="63.6640625" style="9" customWidth="1"/>
     <col min="2" max="3" width="20" style="9" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" style="9" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="9"/>
@@ -2239,8 +2236,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2814,8 +2811,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3769,14 +3766,16 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.1640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="9"/>
+    <col min="3" max="6" width="8.83203125" style="9"/>
+    <col min="7" max="7" width="52.1640625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -4492,14 +4491,18 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.1640625" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="39.33203125" style="9" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" style="9"/>
+    <col min="7" max="7" width="23.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -4632,8 +4635,8 @@
       <c r="G7" s="25">
         <v>0.11</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>97</v>
+      <c r="H7" s="25">
+        <v>0.42199999999999999</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>

--- a/CW1-BusinessImpactsOfCovid19Data.xlsx
+++ b/CW1-BusinessImpactsOfCovid19Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zehaoxue/Projects/Open-Data-Innovation-CW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6B2B0-ADD0-4F42-A80A-A0FC551DDCE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A2CD9-3C65-D94B-8710-BA57BE3D3D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19380" tabRatio="741" firstSheet="3" activeTab="7" xr2:uid="{9EB04E1C-C546-4017-9D53-D0BD6D4BAE6A}"/>
+    <workbookView xWindow="7700" yWindow="500" windowWidth="19200" windowHeight="19380" tabRatio="741" activeTab="3" xr2:uid="{9EB04E1C-C546-4017-9D53-D0BD6D4BAE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="1" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1623,8 +1623,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1769,7 +1769,7 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="J7" s="12">
-        <v>2.1749999999999998</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -2236,8 +2236,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2811,7 +2811,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -4491,7 +4491,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
